--- a/data/metadata/mapping-division-2-digitos-descripcion.xlsx
+++ b/data/metadata/mapping-division-2-digitos-descripcion.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="245">
-  <si>
-    <t>Servicios de información</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+  <si>
+    <t>Actividades de construcción especializada</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/actividades-de-construccion-especializada</t>
@@ -605,204 +605,52 @@
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/venta-y-reparacion-de-vehiculos-de-motor-y-motocicletas</t>
-  </si>
-  <si>
-    <t>Actividades de programación y emisión de radio y televisión</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/actividades-de-programacion-y-emision-de-radio-y-television</t>
-  </si>
-  <si>
-    <t>Seguros</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/seguros</t>
-  </si>
-  <si>
-    <t>Actividades de descontaminación y otros servicios de gestión de residuos</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/actividades-de-descontaminacion-y-otros-servicios-de-gestion-de-residuos</t>
-  </si>
-  <si>
-    <t>Edición</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/edicion</t>
-  </si>
-  <si>
-    <t>Transporte marítimo y por vías navegables interiores</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/transporte-maritimo-y-por-vias-navegables-interiores</t>
-  </si>
-  <si>
-    <t>Transporte aéreo</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/transporte-aereo</t>
-  </si>
-  <si>
-    <t>Actividades auxiliares a los servicios financieros y a los seguros</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/actividades-auxiliares-a-los-servicios-financieros-y-a-los-seguros</t>
-  </si>
-  <si>
-    <t>Actividades de seguridad e investigación</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/activiades-de-seguridad-e-investigacion</t>
-  </si>
-  <si>
-    <t>Actividades de organizaciones y organismos extraterritoriales</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/actividades-de-organizaciones-y-organismos-extraterritoriales</t>
-  </si>
-  <si>
-    <t>Recogida y tratamiento de aguas residuales</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/recogida-y-tratamiento-de-aguas-residuales</t>
-  </si>
-  <si>
-    <t>Telecomunicaciones</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/telecomunicaciones</t>
-  </si>
-  <si>
-    <t>Actividades cinematográficas</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/actividades-cinematograficas</t>
-  </si>
-  <si>
-    <t>Industria del tabaco</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/industria-del-tabaco</t>
-  </si>
-  <si>
-    <t>Actividades veterinarias</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/actividades-veterinarias</t>
-  </si>
-  <si>
-    <t>Extracción de crudo de petróleo y gas natural</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/extraccion-de-crudo-de-petroleo-y-de-gas-natural</t>
-  </si>
-  <si>
-    <t>Pesca y acuicultura</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/pesca-y-acuicultura</t>
-  </si>
-  <si>
-    <t>Coquerías y refino de petróleo</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/coquerias-y-refino-de-petroleo</t>
-  </si>
-  <si>
-    <t>Actividades de apoyo a las industrias extractivas</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/actividades-de-apoyo-a-las-industrias-extractivas</t>
-  </si>
-  <si>
-    <t>Reparación de ordenadores</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/division-2-digitos-descripcion/reparaciones-de-ordenadores</t>
-  </si>
-  <si>
-    <t>Sin clasificar</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/sin-clasificar</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/otras-actividades-empresariales</t>
-  </si>
-  <si>
-    <t>Seguros, reaseguros y fondos de pensiones, excepto Seguridad Social obligatoria</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/seguros-reaseguros-y-fondos-de-pensiones-excepto-seguridad-social-obligatoria</t>
-  </si>
-  <si>
-    <t>Actividades cinematográficas, de video y de programas de televisión, grabación de sonido y edición musical</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/actividades-cinematograficas-de-video-y-de-programas-de-television-grabacion-de-sonido-y-edicion-musical</t>
-  </si>
-  <si>
-    <t>Reparación de ordenadores, efectos personales y artículos de uso doméstico</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/reparacion-de-ordenadores-efectos-personales-y-articulos-de-uso-domestico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,22 +660,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="56.71"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -838,7 +680,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -846,7 +688,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -854,7 +696,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -862,7 +704,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -870,7 +712,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -878,7 +720,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -886,7 +728,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -894,7 +736,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -902,7 +744,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -910,7 +752,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -918,7 +760,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -926,7 +768,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -934,7 +776,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -942,7 +784,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -950,7 +792,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -958,7 +800,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -966,7 +808,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -974,7 +816,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -982,7 +824,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -990,7 +832,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -998,7 +840,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1006,7 +848,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1014,7 +856,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1022,7 +864,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1030,7 +872,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1038,7 +880,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1046,7 +888,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1054,7 +896,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1062,7 +904,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1070,7 +912,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1078,7 +920,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1086,7 +928,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1094,7 +936,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1102,7 +944,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1110,7 +952,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1118,7 +960,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1126,7 +968,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1134,7 +976,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1142,7 +984,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1150,7 +992,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1158,7 +1000,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1166,7 +1008,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1174,7 +1016,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1182,7 +1024,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1190,7 +1032,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1198,7 +1040,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1206,7 +1048,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1214,7 +1056,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1222,7 +1064,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1230,7 +1072,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1238,7 +1080,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1246,7 +1088,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1254,7 +1096,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1262,7 +1104,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1270,7 +1112,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1278,7 +1120,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1286,7 +1128,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1294,7 +1136,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -1302,7 +1144,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1310,7 +1152,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1318,7 +1160,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1326,7 +1168,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1334,7 +1176,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -1342,7 +1184,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -1350,7 +1192,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -1358,7 +1200,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -1366,7 +1208,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -1374,7 +1216,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -1382,7 +1224,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -1390,7 +1232,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -1398,7 +1240,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -1406,7 +1248,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -1414,7 +1256,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -1422,7 +1264,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -1430,7 +1272,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -1438,7 +1280,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -1446,7 +1288,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -1454,7 +1296,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -1462,7 +1304,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -1470,7 +1312,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -1478,7 +1320,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -1486,7 +1328,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -1494,7 +1336,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -1502,7 +1344,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -1510,7 +1352,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -1518,7 +1360,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -1526,7 +1368,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -1534,7 +1376,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -1542,7 +1384,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -1550,7 +1392,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -1558,7 +1400,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -1566,7 +1408,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -1574,7 +1416,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -1582,7 +1424,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -1590,7 +1432,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -1598,7 +1440,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -1606,7 +1448,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -1614,203 +1456,11 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1914,31 +1564,7 @@
     <hyperlink r:id="rId97" ref="B97"/>
     <hyperlink r:id="rId98" ref="B98"/>
     <hyperlink r:id="rId99" ref="B99"/>
-    <hyperlink r:id="rId100" ref="B100"/>
-    <hyperlink r:id="rId101" ref="B101"/>
-    <hyperlink r:id="rId102" ref="B102"/>
-    <hyperlink r:id="rId103" ref="B103"/>
-    <hyperlink r:id="rId104" ref="B104"/>
-    <hyperlink r:id="rId105" ref="B105"/>
-    <hyperlink r:id="rId106" ref="B106"/>
-    <hyperlink r:id="rId107" ref="B107"/>
-    <hyperlink r:id="rId108" ref="B108"/>
-    <hyperlink r:id="rId109" ref="B109"/>
-    <hyperlink r:id="rId110" ref="B110"/>
-    <hyperlink r:id="rId111" ref="B111"/>
-    <hyperlink r:id="rId112" ref="B112"/>
-    <hyperlink r:id="rId113" ref="B113"/>
-    <hyperlink r:id="rId114" ref="B114"/>
-    <hyperlink r:id="rId115" ref="B115"/>
-    <hyperlink r:id="rId116" ref="B116"/>
-    <hyperlink r:id="rId117" ref="B117"/>
-    <hyperlink r:id="rId118" ref="B118"/>
-    <hyperlink r:id="rId119" ref="B119"/>
-    <hyperlink r:id="rId120" ref="B120"/>
-    <hyperlink r:id="rId121" ref="B121"/>
-    <hyperlink r:id="rId122" ref="B122"/>
-    <hyperlink r:id="rId123" ref="B123"/>
   </hyperlinks>
-  <drawing r:id="rId124"/>
+  <drawing r:id="rId100"/>
 </worksheet>
 </file>